--- a/dtpu_configurations/only_integer8/mxu_16x16_30mhz/timing.xlsx
+++ b/dtpu_configurations/only_integer8/mxu_16x16_30mhz/timing.xlsx
@@ -119,10 +119,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>5.304713249206543</v>
+        <v>6.786926746368408</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.01625688560307026</v>
+        <v>0.007454703561961651</v>
       </c>
     </row>
   </sheetData>
